--- a/biology/Zoologie/Colin_à_longue_queue/Colin_à_longue_queue.xlsx
+++ b/biology/Zoologie/Colin_à_longue_queue/Colin_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_longue_queue</t>
+          <t>Colin_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrortyx macroura
 Le Colin à longue queue (Dendrortyx macroura) est une espèce d'oiseau galliforme appartenant à la famille des Odontophoridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_longue_queue</t>
+          <t>Colin_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes mesurent entre 22 et 27 cm de longueur. C'est un oiseau au corps brun, le ventre est plus clair avec des petites taches sombres et le dos a des taches blanches ou grises. Les plumes de la face, la crête et la gorge sont noires mais il a deux lignes blanches au-dessus et en dessous de l'œil. L'œil, son pourtour et le bec sont rouges.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_longue_queue</t>
+          <t>Colin_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique du Mexique. Il vit dans les forêts humides de pins et de chênes des zones tempérées et froides de montagne, dans les ravins et sur les pentes des volcans. Sa distribution comprend les zones volcaniques de Veracruz à Jalisco, les plus hautes régions des États de Guerrero et d'Oaxaca.
 </t>
